--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_16-26.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_16-26.xlsx
@@ -83,6 +83,12 @@
     <t xml:space="preserve">EVAL CARE  GEL</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>FOURVENT SYRUP 125ML</t>
   </si>
   <si>
@@ -134,43 +140,43 @@
     <t>ORS 10 SACHET</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>SKINATRA TOP. OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>URGINAFECT 10MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
     <t>4:1</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>PANADOL ACUTE HEAD COLD</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:11</t>
-  </si>
-  <si>
-    <t>RELAXON 30 CAP</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>SKINATRA TOP. OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>TORSAMOLEX 20MG 20 TABS</t>
-  </si>
-  <si>
-    <t>URGINAFECT 10MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -1075,7 +1081,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -1101,11 +1107,11 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1127,11 +1133,11 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1147,17 +1153,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1173,17 +1179,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1191,7 +1197,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1205,7 +1211,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>36.5</v>
+        <v>92</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1217,7 +1223,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1225,13 +1231,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>35</v>
+        <v>36.5</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1251,13 +1257,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1269,7 +1275,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1277,17 +1283,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1303,17 +1309,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1321,7 +1327,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1329,17 +1335,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1361,11 +1367,11 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1381,17 +1387,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1407,17 +1413,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1433,13 +1439,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>28.199999999999999</v>
+        <v>23</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1451,7 +1457,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1459,13 +1465,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>23</v>
+        <v>28.199999999999999</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1477,7 +1483,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1485,17 +1491,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1511,13 +1517,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1543,11 +1549,11 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1563,17 +1569,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1595,11 +1601,11 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1621,11 +1627,11 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1667,13 +1673,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1685,7 +1691,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1693,13 +1699,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1725,11 +1731,11 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>11.67</v>
+        <v>20</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1751,11 +1757,11 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>12</v>
+        <v>11.67</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1771,17 +1777,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1789,7 +1795,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1797,7 +1803,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -1807,7 +1813,7 @@
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1823,17 +1829,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>133.65000000000001</v>
+        <v>20</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1841,7 +1847,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1849,17 +1855,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>15</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1867,7 +1873,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1875,13 +1881,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1901,13 +1907,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -1919,7 +1925,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1927,13 +1933,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -1945,7 +1951,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1953,7 +1959,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -1971,7 +1977,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1979,51 +1985,77 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="K49" s="10">
-        <v>1592.52</v>
-      </c>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="11">
-        <v>78</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c t="s" r="F50" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" ht="24.75" customHeight="1">
+      <c r="A49" s="6">
+        <v>46</v>
+      </c>
+      <c t="s" r="B49" s="7">
         <v>79</v>
       </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="13"/>
-      <c t="s" r="I50" s="14">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c t="s" r="H49" s="8">
+        <v>20</v>
+      </c>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="9">
         <v>80</v>
       </c>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
+      <c r="M49" s="9"/>
+      <c t="s" r="N49" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" ht="26.25" customHeight="1">
+      <c r="K50" s="10">
+        <v>1622.52</v>
+      </c>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="11">
+        <v>80</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c t="s" r="F51" s="12">
+        <v>81</v>
+      </c>
+      <c r="G51" s="12"/>
+      <c r="H51" s="13"/>
+      <c t="s" r="I51" s="14">
+        <v>82</v>
+      </c>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="146">
+  <mergeCells count="149">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2166,10 +2198,13 @@
     <mergeCell ref="B48:G48"/>
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="I51:N51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
